--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H2">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I2">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J2">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1171866666666667</v>
+        <v>0.4967476666666666</v>
       </c>
       <c r="N2">
-        <v>0.35156</v>
+        <v>1.490243</v>
       </c>
       <c r="O2">
-        <v>0.01740710573940341</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="P2">
-        <v>0.01740710573940341</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="Q2">
-        <v>0.1872500746844444</v>
+        <v>0.7937424992831109</v>
       </c>
       <c r="R2">
-        <v>1.68525067216</v>
+        <v>7.143682493547999</v>
       </c>
       <c r="S2">
-        <v>0.01709805122535123</v>
+        <v>0.07448490096336886</v>
       </c>
       <c r="T2">
-        <v>0.01709805122535123</v>
+        <v>0.07448490096336885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H3">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I3">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J3">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>5.906929</v>
       </c>
       <c r="O3">
-        <v>0.29247507594194</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="P3">
-        <v>0.2924750759419399</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="Q3">
-        <v>3.146185278204889</v>
+        <v>3.146185278204888</v>
       </c>
       <c r="R3">
         <v>28.315667503844</v>
       </c>
       <c r="S3">
-        <v>0.2872823262786231</v>
+        <v>0.295238442027677</v>
       </c>
       <c r="T3">
-        <v>0.287282326278623</v>
+        <v>0.295238442027677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H4">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I4">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J4">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.628736333333333</v>
+        <v>3.531223333333333</v>
       </c>
       <c r="N4">
-        <v>13.886209</v>
+        <v>10.59367</v>
       </c>
       <c r="O4">
-        <v>0.6875603264946389</v>
+        <v>0.5888368093055345</v>
       </c>
       <c r="P4">
-        <v>0.6875603264946388</v>
+        <v>0.5888368093055344</v>
       </c>
       <c r="Q4">
-        <v>7.396159040658222</v>
+        <v>5.642466431568888</v>
       </c>
       <c r="R4">
-        <v>66.56543136592401</v>
+        <v>50.78219788411999</v>
       </c>
       <c r="S4">
-        <v>0.675353034497478</v>
+        <v>0.5294897951465714</v>
       </c>
       <c r="T4">
-        <v>0.6753530344974777</v>
+        <v>0.5294897951465711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.597878666666667</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H5">
-        <v>4.793636</v>
+        <v>0.537287</v>
       </c>
       <c r="I5">
-        <v>0.98224549682877</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J5">
-        <v>0.9822454968287699</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01721733333333333</v>
+        <v>0.4967476666666666</v>
       </c>
       <c r="N5">
-        <v>0.051652</v>
+        <v>1.490243</v>
       </c>
       <c r="O5">
-        <v>0.002557491824017706</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="P5">
-        <v>0.002557491824017705</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="Q5">
-        <v>0.02751120963022222</v>
+        <v>0.08896535452677777</v>
       </c>
       <c r="R5">
-        <v>0.247600886672</v>
+        <v>0.8006881907409999</v>
       </c>
       <c r="S5">
-        <v>0.002512084827317789</v>
+        <v>0.008348520618567111</v>
       </c>
       <c r="T5">
-        <v>0.002512084827317788</v>
+        <v>0.008348520618567109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +773,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H6">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I6">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J6">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1171866666666667</v>
+        <v>1.968976333333333</v>
       </c>
       <c r="N6">
-        <v>0.35156</v>
+        <v>5.906929</v>
       </c>
       <c r="O6">
-        <v>0.01740710573940341</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="P6">
-        <v>0.01740710573940341</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="Q6">
-        <v>0.003384624368888889</v>
+        <v>0.3526351290692222</v>
       </c>
       <c r="R6">
-        <v>0.03046161932</v>
+        <v>3.173716161623</v>
       </c>
       <c r="S6">
-        <v>0.0003090545140521743</v>
+        <v>0.03309132708485261</v>
       </c>
       <c r="T6">
-        <v>0.0003090545140521742</v>
+        <v>0.0330913270848526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +835,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H7">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I7">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J7">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.968976333333333</v>
+        <v>3.531223333333333</v>
       </c>
       <c r="N7">
-        <v>5.906929</v>
+        <v>10.59367</v>
       </c>
       <c r="O7">
-        <v>0.29247507594194</v>
+        <v>0.5888368093055345</v>
       </c>
       <c r="P7">
-        <v>0.2924750759419399</v>
+        <v>0.5888368093055344</v>
       </c>
       <c r="Q7">
-        <v>0.05686863078477777</v>
+        <v>0.6324267970322222</v>
       </c>
       <c r="R7">
-        <v>0.511817677063</v>
+        <v>5.691841173289999</v>
       </c>
       <c r="S7">
-        <v>0.005192749663316918</v>
+        <v>0.05934701415896323</v>
       </c>
       <c r="T7">
-        <v>0.005192749663316916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02888233333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.086647</v>
-      </c>
-      <c r="I8">
-        <v>0.01775450317123003</v>
-      </c>
-      <c r="J8">
-        <v>0.01775450317123003</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4.628736333333333</v>
-      </c>
-      <c r="N8">
-        <v>13.886209</v>
-      </c>
-      <c r="O8">
-        <v>0.6875603264946389</v>
-      </c>
-      <c r="P8">
-        <v>0.6875603264946388</v>
-      </c>
-      <c r="Q8">
-        <v>0.1336887056914444</v>
-      </c>
-      <c r="R8">
-        <v>1.203198351223</v>
-      </c>
-      <c r="S8">
-        <v>0.01220729199716102</v>
-      </c>
-      <c r="T8">
-        <v>0.01220729199716102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02888233333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.086647</v>
-      </c>
-      <c r="I9">
-        <v>0.01775450317123003</v>
-      </c>
-      <c r="J9">
-        <v>0.01775450317123003</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01721733333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.051652</v>
-      </c>
-      <c r="O9">
-        <v>0.002557491824017706</v>
-      </c>
-      <c r="P9">
-        <v>0.002557491824017705</v>
-      </c>
-      <c r="Q9">
-        <v>0.0004972767604444443</v>
-      </c>
-      <c r="R9">
-        <v>0.004475490844</v>
-      </c>
-      <c r="S9">
-        <v>4.540699669991724E-05</v>
-      </c>
-      <c r="T9">
-        <v>4.540699669991722E-05</v>
+        <v>0.05934701415896321</v>
       </c>
     </row>
   </sheetData>
